--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail13 Features.xlsx
@@ -3321,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,28 +3333,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3375,115 +3373,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3500,72 +3488,66 @@
         <v>2.443294975248563e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1172266305280247</v>
+        <v>7.859070256703321e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.283044161488624</v>
+        <v>2.439866593359476e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.859070256703321e-07</v>
+        <v>-0.03583238012851784</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.439866593359476e-06</v>
+        <v>0.0833472497184551</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03583238012851784</v>
+        <v>0.008216250705609328</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.0833472497184551</v>
+        <v>1.935616815417698</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008216250705609328</v>
+        <v>2.619893222219703</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.960079388625409</v>
+        <v>6.428305730049143</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.619893222219703</v>
+        <v>2.049208025316515e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.428305730049143</v>
+        <v>7479424497.03137</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.049208025316515e-17</v>
+        <v>1.616042892154619e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7479424497.03137</v>
+        <v>1146.363666718578</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.616042892154619e-08</v>
+        <v>6.881847826813554e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1146.363666718578</v>
+        <v>13.43899698426504</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.881847826813554e-05</v>
+        <v>1.049516681551026</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.43899698426504</v>
+        <v>0.01242907412600417</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.049516681551026</v>
+        <v>6.366064665037934</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01242907412600417</v>
+        <v>0.9605811305442025</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.366064665037934</v>
+        <v>0.7853582320527943</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9605811305442025</v>
+        <v>275</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7853582320527943</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>10.34597066908933</v>
       </c>
     </row>
@@ -3580,72 +3562,66 @@
         <v>2.499071033863827e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0867282769602724</v>
+        <v>7.964339197222663e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.297446399884216</v>
+        <v>2.430141942232296e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.964339197222663e-07</v>
+        <v>-0.0423366785877928</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.430141942232296e-06</v>
+        <v>0.05883985931542147</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0423366785877928</v>
+        <v>0.005247646321475333</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.05883985931542147</v>
+        <v>1.937182535736947</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005247646321475333</v>
+        <v>2.663944062456915</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.962400674824389</v>
+        <v>5.878811837872</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.663944062456915</v>
+        <v>3.098324871429942e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.878811837872</v>
+        <v>4978916674.943314</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.098324871429942e-17</v>
+        <v>2.431601140844934e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4978916674.943314</v>
+        <v>768.06269107633</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.431601140844934e-08</v>
+        <v>0.0001050666734987083</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>768.06269107633</v>
+        <v>13.57777763174658</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001050666734987083</v>
+        <v>1.061100991312799</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.57777763174658</v>
+        <v>0.01936967643135757</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.061100991312799</v>
+        <v>5.554016250819586</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01936967643135757</v>
+        <v>0.9598881293933423</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.554016250819586</v>
+        <v>0.822118231858969</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9598881293933423</v>
+        <v>272</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.822118231858969</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.069253676929655</v>
       </c>
     </row>
@@ -3660,72 +3636,66 @@
         <v>2.541566806279705e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.04898694799619137</v>
+        <v>8.049336724391492e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.293892922385428</v>
+        <v>2.418880378754976e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.049336724391492e-07</v>
+        <v>-0.04661411715261297</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.418880378754976e-06</v>
+        <v>0.04161500637379169</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04661411715261297</v>
+        <v>0.003901990533904149</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.04161500637379169</v>
+        <v>1.930129380594055</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.003901990533904149</v>
+        <v>2.318874615090651</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958365704179238</v>
+        <v>5.13892215639699</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.318874615090651</v>
+        <v>5.14316523404011e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.13892215639699</v>
+        <v>2891097119.524841</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.14316523404011e-17</v>
+        <v>4.161902061331281e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2891097119.524841</v>
+        <v>429.8885115715353</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.161902061331281e-08</v>
+        <v>0.0001484741454805133</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>429.8885115715353</v>
+        <v>13.73812806757062</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001484741454805133</v>
+        <v>1.065562296149192</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.73812806757062</v>
+        <v>0.02802244049314531</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.065562296149192</v>
+        <v>4.659577453603712</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02802244049314531</v>
+        <v>0.9593170689216973</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.659577453603712</v>
+        <v>0.8905677741506557</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9593170689216973</v>
+        <v>243</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8905677741506557</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.890781095359552</v>
       </c>
     </row>
@@ -3740,72 +3710,66 @@
         <v>2.570301761451142e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01180873646686644</v>
+        <v>8.107009176776068e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.28088229174327</v>
+        <v>2.406587859039874e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.107009176776068e-07</v>
+        <v>-0.04927546462864053</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.406587859039874e-06</v>
+        <v>0.03026894206589359</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04927546462864053</v>
+        <v>0.003343450493425471</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03026894206589359</v>
+        <v>1.927706303174382</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003343450493425471</v>
+        <v>2.182256433988853</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953703631098941</v>
+        <v>4.569562741109565</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.182256433988853</v>
+        <v>8.957454637982314e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.569562741109565</v>
+        <v>1591417260.149757</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.957454637982314e-17</v>
+        <v>7.561010788334078e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1591417260.149757</v>
+        <v>226.8572930079765</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.561010788334078e-08</v>
+        <v>0.0001931525707570687</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>226.8572930079765</v>
+        <v>13.66485328058949</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001931525707570687</v>
+        <v>1.065642817578492</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.66485328058949</v>
+        <v>0.03606703479490329</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.065642817578492</v>
+        <v>3.703468908630119</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03606703479490329</v>
+        <v>0.9610845493943179</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.703468908630119</v>
+        <v>0.9779970225780777</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9610845493943179</v>
+        <v>202</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9779970225780777</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.666302973297499</v>
       </c>
     </row>
@@ -4182,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626207454191505</v>
+        <v>1.649333552951786</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.278429970101511</v>
@@ -4271,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612419285102483</v>
+        <v>1.644603050187345</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.260801085095888</v>
@@ -4360,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617786137602859</v>
+        <v>1.649396001922909</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.289754541304859</v>
@@ -4449,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.631563399276748</v>
+        <v>1.665207687082843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.270463314072863</v>
@@ -4538,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651063993674946</v>
+        <v>1.687491688261406</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.102399200181541</v>
@@ -4627,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.771276717243777</v>
+        <v>1.795011779745742</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.427877919231606</v>
@@ -4716,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.775001975768466</v>
+        <v>1.787651820529759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.735104574088265</v>
@@ -4805,7 +4769,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.767429964144682</v>
+        <v>1.776414259048855</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.731066622862846</v>
@@ -4894,7 +4858,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.774167859979604</v>
+        <v>1.781905946888086</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.45298610705164</v>
@@ -4983,7 +4947,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.810225973855839</v>
+        <v>1.80875201539066</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.28915842379222</v>
@@ -5072,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.806403646780477</v>
+        <v>1.794068398618534</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.361890453612577</v>
@@ -5161,7 +5125,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.802836226248878</v>
+        <v>1.7929747364921</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.421800920523819</v>
@@ -5250,7 +5214,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.797790916201301</v>
+        <v>1.787844327711213</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.365477138583469</v>
@@ -5339,7 +5303,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.78779282193617</v>
+        <v>1.779222226414098</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.473575087029552</v>
@@ -5428,7 +5392,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.789727443150843</v>
+        <v>1.781008458805556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.501358543135689</v>
@@ -5517,7 +5481,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.846552098587724</v>
+        <v>1.827707720583547</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.089654414678999</v>
@@ -5606,7 +5570,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.852175606516958</v>
+        <v>1.834777765888514</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.25106432820223</v>
@@ -5695,7 +5659,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.855973401353989</v>
+        <v>1.835874260913072</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.874894270694541</v>
@@ -5784,7 +5748,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.866635959268472</v>
+        <v>1.841793559734109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.690850917871447</v>
@@ -5873,7 +5837,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.868453152841013</v>
+        <v>1.834236159637059</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.934612293120244</v>
@@ -5962,7 +5926,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.868341450441207</v>
+        <v>1.837028109519692</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.477932319334537</v>
@@ -6051,7 +6015,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.806138338641389</v>
+        <v>1.794081318432448</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.485301372328238</v>
@@ -6140,7 +6104,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.765913496238944</v>
+        <v>1.755621579414907</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.5213236236299</v>
@@ -6229,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.713028882038462</v>
+        <v>1.705077432842773</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.524495373204393</v>
@@ -6318,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.709272517189977</v>
+        <v>1.709312191014302</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.598479130023079</v>
@@ -6407,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.661547490390227</v>
+        <v>1.669956858267841</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.539595463951756</v>
@@ -6496,7 +6460,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.657071451648626</v>
+        <v>1.664178602047388</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.64000695559822</v>
@@ -6585,7 +6549,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.655703783177655</v>
+        <v>1.661926617650933</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.613616656081408</v>
@@ -6674,7 +6638,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.655370853001082</v>
+        <v>1.659920163149156</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.605223226333503</v>
@@ -6763,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655998648837667</v>
+        <v>1.660024100708794</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.550711531260454</v>
@@ -6852,7 +6816,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657258806276166</v>
+        <v>1.660226657011603</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.549265802062626</v>
@@ -6941,7 +6905,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625882729721203</v>
+        <v>1.631044069155946</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.611139302524525</v>
@@ -7030,7 +6994,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.620570257113953</v>
+        <v>1.625796767779824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.501186886269437</v>
@@ -7119,7 +7083,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.611414023787533</v>
+        <v>1.614497779463959</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.574302618438658</v>
@@ -7208,7 +7172,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61159461690068</v>
+        <v>1.619293076307333</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.585908400563224</v>
@@ -7297,7 +7261,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610928741894861</v>
+        <v>1.616181716709064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.572970590142921</v>
@@ -7386,7 +7350,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65076519314925</v>
+        <v>1.653502811582045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.54438295391333</v>
@@ -7475,7 +7439,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.682706422345323</v>
+        <v>1.684745078757594</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.445121959782162</v>
@@ -7564,7 +7528,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729253118496863</v>
+        <v>1.723468516551539</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.37564922000736</v>
@@ -7653,7 +7617,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.727448948392316</v>
+        <v>1.721633312657556</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.374087207101268</v>
@@ -7742,7 +7706,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.809551947829869</v>
+        <v>1.786936777445151</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.502405096298499</v>
@@ -7831,7 +7795,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.817401011525816</v>
+        <v>1.795633389635851</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.496594587568843</v>
@@ -7920,7 +7884,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.809574173453523</v>
+        <v>1.78700091752203</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.428933886273752</v>
@@ -8009,7 +7973,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.809812194793142</v>
+        <v>1.787225353822027</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.482106513624374</v>
@@ -8098,7 +8062,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.796644124037825</v>
+        <v>1.765407656313948</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.483705474080005</v>
@@ -8187,7 +8151,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.725670242690443</v>
+        <v>1.712489470702954</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.091592994782834</v>
@@ -8276,7 +8240,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.733373904547486</v>
+        <v>1.721253874353854</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.505854573238143</v>
@@ -8365,7 +8329,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.736144534252723</v>
+        <v>1.72582517356079</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.577855010415028</v>
@@ -8454,7 +8418,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.73744255552548</v>
+        <v>1.729075194483756</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.546392618657198</v>
@@ -8740,7 +8704,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.703519222088214</v>
+        <v>1.673756509226612</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.263300651968267</v>
@@ -8829,7 +8793,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.701717430957639</v>
+        <v>1.674052285667848</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.436861540522919</v>
@@ -8918,7 +8882,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.721524126138379</v>
+        <v>1.693043732627637</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.043564455670173</v>
@@ -9007,7 +8971,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722430410232843</v>
+        <v>1.692447282646607</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.11029357879224</v>
@@ -9096,7 +9060,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.719890148905687</v>
+        <v>1.698657362476041</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.168329557221824</v>
@@ -9185,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.717117310852654</v>
+        <v>1.694792651391418</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.023470973308432</v>
@@ -9274,7 +9238,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.71936762663221</v>
+        <v>1.688940102011853</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.24128527155706</v>
@@ -9363,7 +9327,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717472486352634</v>
+        <v>1.679209687340357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.179346138527403</v>
@@ -9452,7 +9416,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.720438966731958</v>
+        <v>1.682020533167499</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.349857974547642</v>
@@ -9541,7 +9505,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.713583384495332</v>
+        <v>1.674629112323503</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.584408138366545</v>
@@ -9630,7 +9594,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.703877917867421</v>
+        <v>1.661562735362649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.29044623896659</v>
@@ -9719,7 +9683,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.694706370412719</v>
+        <v>1.647267630691022</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.078406095168763</v>
@@ -9808,7 +9772,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.691147041009667</v>
+        <v>1.641247012587348</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.490457256057557</v>
@@ -9897,7 +9861,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.675353741265831</v>
+        <v>1.628144951689529</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.419932723611632</v>
@@ -9986,7 +9950,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.673801468060722</v>
+        <v>1.627770027747886</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.167622309342656</v>
@@ -10075,7 +10039,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677496023129595</v>
+        <v>1.632229063583707</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.593533556134899</v>
@@ -10164,7 +10128,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.673068478741612</v>
+        <v>1.626011175981</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.31279894846214</v>
@@ -10253,7 +10217,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.676922049560266</v>
+        <v>1.62531896816543</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.099478587129608</v>
@@ -10342,7 +10306,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.695053902700288</v>
+        <v>1.644893176924608</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.62204999524468</v>
@@ -10431,7 +10395,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.70807912057494</v>
+        <v>1.653210027784127</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.430805727918266</v>
@@ -10520,7 +10484,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.721700037600291</v>
+        <v>1.665457644177198</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.429645578157893</v>
@@ -10609,7 +10573,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.719938213612033</v>
+        <v>1.675169220860523</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.41674948060995</v>
@@ -10698,7 +10662,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.707773295252353</v>
+        <v>1.663677965109265</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.381394510797937</v>
@@ -10787,7 +10751,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.712564340878822</v>
+        <v>1.671254109381443</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.207095410666864</v>
@@ -10876,7 +10840,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726698565964337</v>
+        <v>1.688153791161064</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.525405052538757</v>
@@ -10965,7 +10929,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.690427231387015</v>
+        <v>1.661014829753229</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.740512895137973</v>
@@ -11054,7 +11018,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708046288627702</v>
+        <v>1.676812251510936</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.64272794019886</v>
@@ -11143,7 +11107,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.713321331651457</v>
+        <v>1.681311157171256</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.76122018668939</v>
@@ -11232,7 +11196,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.728242871584118</v>
+        <v>1.695624670321403</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.784753740697225</v>
@@ -11321,7 +11285,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.73148812446133</v>
+        <v>1.698668836185521</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.582826008050195</v>
@@ -11410,7 +11374,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.742777467059927</v>
+        <v>1.710673802882859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.661134026839335</v>
@@ -11499,7 +11463,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.745455461274785</v>
+        <v>1.717212664501075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.778567264980196</v>
@@ -11588,7 +11552,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.744965819792798</v>
+        <v>1.719867014406206</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.697928267024793</v>
@@ -11677,7 +11641,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.748087778378583</v>
+        <v>1.726678942411466</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.830513292373529</v>
@@ -11766,7 +11730,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.741690232667781</v>
+        <v>1.72332288257943</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.704290693801802</v>
@@ -11855,7 +11819,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.737394164329945</v>
+        <v>1.719130236969402</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.653082029084031</v>
@@ -11944,7 +11908,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.74137448332862</v>
+        <v>1.723948973084075</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.722735579170128</v>
@@ -12033,7 +11997,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.7658987536113</v>
+        <v>1.747851334038007</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.673444253137687</v>
@@ -12122,7 +12086,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.754803812757795</v>
+        <v>1.740190911569773</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.795247538479902</v>
@@ -12211,7 +12175,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.746086773403</v>
+        <v>1.729494327125844</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.672266224085115</v>
@@ -12300,7 +12264,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.803826771832147</v>
+        <v>1.772366793028823</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.535078899096503</v>
@@ -12389,7 +12353,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.793092151036253</v>
+        <v>1.761688959261009</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.836795957987731</v>
@@ -12478,7 +12442,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.78113406674672</v>
+        <v>1.746641864483483</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.808034385894456</v>
@@ -12567,7 +12531,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.76768107360519</v>
+        <v>1.728110836236021</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.51119609800272</v>
@@ -12656,7 +12620,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.766058398397531</v>
+        <v>1.722742518443679</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.674206154923883</v>
@@ -12745,7 +12709,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.749707191657495</v>
+        <v>1.714203713491299</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.040288307022865</v>
@@ -12834,7 +12798,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.752342937357087</v>
+        <v>1.718298306342722</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.664911637144091</v>
@@ -12923,7 +12887,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.749566399883722</v>
+        <v>1.712755526324854</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.616447269257586</v>
@@ -13012,7 +12976,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.74023360007588</v>
+        <v>1.700605123269701</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.502901765157297</v>
@@ -13298,7 +13262,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.843969962569067</v>
+        <v>1.833756135771485</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.015800729028001</v>
@@ -13387,7 +13351,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.840093203714105</v>
+        <v>1.827208657297249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.963418383165496</v>
@@ -13476,7 +13440,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.849671666416905</v>
+        <v>1.833784262519805</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.098703554811432</v>
@@ -13565,7 +13529,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.859338679277859</v>
+        <v>1.845584769224697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.056511543127836</v>
@@ -13654,7 +13618,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.865585132906368</v>
+        <v>1.853729596602304</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.16203039427538</v>
@@ -13743,7 +13707,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.879835011475439</v>
+        <v>1.856121603273593</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.818258623409707</v>
@@ -13832,7 +13796,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.870281811961195</v>
+        <v>1.841517124104623</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.959949804195753</v>
@@ -13921,7 +13885,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.863802595901221</v>
+        <v>1.827810028556121</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.715909131012098</v>
@@ -14010,7 +13974,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.862238916268415</v>
+        <v>1.823852473032147</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.720868093993198</v>
@@ -14099,7 +14063,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.85873627850694</v>
+        <v>1.820602714762765</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.111675767561739</v>
@@ -14188,7 +14152,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.839553765665187</v>
+        <v>1.798985800825288</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.678162967638885</v>
@@ -14277,7 +14241,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.837228444258914</v>
+        <v>1.789293532133039</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.923510647847224</v>
@@ -14366,7 +14330,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.831588460653255</v>
+        <v>1.786115981792331</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.191123143697417</v>
@@ -14455,7 +14419,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.824087496213884</v>
+        <v>1.773153629519719</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.926031980532494</v>
@@ -14544,7 +14508,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.824537377884364</v>
+        <v>1.775302476517795</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.161000507758523</v>
@@ -14633,7 +14597,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.835240591826506</v>
+        <v>1.786198417483163</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.609048144106112</v>
@@ -14722,7 +14686,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.838541329761837</v>
+        <v>1.794232985838367</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.342131311970632</v>
@@ -14811,7 +14775,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.837140752268266</v>
+        <v>1.788736127766545</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.786931504725201</v>
@@ -14900,7 +14864,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.84123349170201</v>
+        <v>1.788175835490331</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.811167679045212</v>
@@ -14989,7 +14953,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.848028717900872</v>
+        <v>1.787471669762031</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.313566931222958</v>
@@ -15078,7 +15042,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.851109897871135</v>
+        <v>1.793448058589437</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.693681922108636</v>
@@ -15167,7 +15131,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.83967926080314</v>
+        <v>1.787149870618913</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.026142551360243</v>
@@ -15256,7 +15220,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.824624206960906</v>
+        <v>1.764272593440927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.983874850091561</v>
@@ -15345,7 +15309,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.816041281748133</v>
+        <v>1.758543599209103</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.296643159457833</v>
@@ -15434,7 +15398,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.819674309939108</v>
+        <v>1.759128891691876</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.41770004506993</v>
@@ -15523,7 +15487,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.829539422920065</v>
+        <v>1.775881334836891</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.869450975846647</v>
@@ -15612,7 +15576,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.831295455400103</v>
+        <v>1.779512794370465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.305255555715075</v>
@@ -15701,7 +15665,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.83705629726327</v>
+        <v>1.784596524346569</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.129284383419239</v>
@@ -15790,7 +15754,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.839837240941347</v>
+        <v>1.788962707497899</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.007336432204741</v>
@@ -15879,7 +15843,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.842700021176352</v>
+        <v>1.786952903116027</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.067600651664937</v>
@@ -15968,7 +15932,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.844880678149271</v>
+        <v>1.789254691758183</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.192581687086232</v>
@@ -16057,7 +16021,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.836880383506173</v>
+        <v>1.785966816204307</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.002790756972322</v>
@@ -16146,7 +16110,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.836871361657867</v>
+        <v>1.786077790164487</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.243204548426682</v>
@@ -16235,7 +16199,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.835730386917786</v>
+        <v>1.785372239142016</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.043951957016083</v>
@@ -16324,7 +16288,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.834790861130118</v>
+        <v>1.785474078572877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.074462180760237</v>
@@ -16413,7 +16377,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.832207950337751</v>
+        <v>1.778179688454821</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.032267349534252</v>
@@ -16502,7 +16466,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.839690723576856</v>
+        <v>1.784909088065662</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.72125088646912</v>
@@ -16591,7 +16555,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.853180460532257</v>
+        <v>1.807737530864671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.892053167761199</v>
@@ -16680,7 +16644,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.858199018037457</v>
+        <v>1.816108889424769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.988657353225387</v>
@@ -16769,7 +16733,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.858387272759403</v>
+        <v>1.814706025533407</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.627835793469611</v>
@@ -16858,7 +16822,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.855654275323808</v>
+        <v>1.800663391986246</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.065320119462533</v>
@@ -16947,7 +16911,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.856868215473973</v>
+        <v>1.798477853844234</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.096130694457708</v>
@@ -17036,7 +17000,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.851802980538004</v>
+        <v>1.789104675248475</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.939860553785281</v>
@@ -17125,7 +17089,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.847951675917243</v>
+        <v>1.78451881140993</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.022553651648217</v>
@@ -17214,7 +17178,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.840085022982078</v>
+        <v>1.78020575189819</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.168775026834617</v>
@@ -17303,7 +17267,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.830831159166858</v>
+        <v>1.777590891753825</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.834848354957648</v>
@@ -17392,7 +17356,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.835073633950832</v>
+        <v>1.783307047542977</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.478180102782805</v>
@@ -17481,7 +17445,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.834473431821041</v>
+        <v>1.786182122906427</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.296584379381372</v>
@@ -17570,7 +17534,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.832669815255046</v>
+        <v>1.784502107144789</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.087358614907846</v>
@@ -17856,7 +17820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.750363357844655</v>
+        <v>1.741581945940595</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.735362971220918</v>
@@ -17945,7 +17909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.762748793611788</v>
+        <v>1.750918272235848</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.501760173316631</v>
@@ -18034,7 +17998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.775770207312322</v>
+        <v>1.764367831956471</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.650026503542339</v>
@@ -18123,7 +18087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.819194615092569</v>
+        <v>1.804777619890628</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.804490418044933</v>
@@ -18212,7 +18176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.831991447434494</v>
+        <v>1.818792556986209</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.777403249279033</v>
@@ -18301,7 +18265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.853530531601257</v>
+        <v>1.831218548510646</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.875659626656301</v>
@@ -18390,7 +18354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.850476511320899</v>
+        <v>1.819255951307033</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.511085006049618</v>
@@ -18479,7 +18443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.844475254250718</v>
+        <v>1.8110942127651</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.054587773411959</v>
@@ -18568,7 +18532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.843130119604908</v>
+        <v>1.8111369409153</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.867626340873608</v>
@@ -18657,7 +18621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.836160981987295</v>
+        <v>1.79982250839693</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.829744146916577</v>
@@ -18746,7 +18710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.816935387848905</v>
+        <v>1.777109560342229</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.102956360492665</v>
@@ -18835,7 +18799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.807241576430736</v>
+        <v>1.769028100873796</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.305602212784022</v>
@@ -18924,7 +18888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.808490672076503</v>
+        <v>1.766831441265054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.58774912397627</v>
@@ -19013,7 +18977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.810008871089617</v>
+        <v>1.772244826461747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.389295415251346</v>
@@ -19102,7 +19066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.808580208645857</v>
+        <v>1.772673164980368</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.209763053711257</v>
@@ -19191,7 +19155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.815456912465761</v>
+        <v>1.78216266472477</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.709525200245988</v>
@@ -19280,7 +19244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.809933682751588</v>
+        <v>1.780555685867324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.357088584718332</v>
@@ -19369,7 +19333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.809630275776739</v>
+        <v>1.773102426762186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.245254260284347</v>
@@ -19458,7 +19422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.807711346978912</v>
+        <v>1.768308537240921</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.283921736214682</v>
@@ -19547,7 +19511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.812932136365863</v>
+        <v>1.766254897835391</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.380733542153046</v>
@@ -19636,7 +19600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.822990033958665</v>
+        <v>1.775814756024144</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.360119730608321</v>
@@ -19725,7 +19689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.834052958883721</v>
+        <v>1.792307787637284</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.165840251258191</v>
@@ -19814,7 +19778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.809770247842413</v>
+        <v>1.764878338228539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.124683090396776</v>
@@ -19903,7 +19867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.752668839637777</v>
+        <v>1.722688862259777</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.759699294045519</v>
@@ -19992,7 +19956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.762566151394869</v>
+        <v>1.732346675174524</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.932160946510421</v>
@@ -20081,7 +20045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.75296723024265</v>
+        <v>1.724197048242324</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.786023780903042</v>
@@ -20170,7 +20134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.751896502683507</v>
+        <v>1.718970783817788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.889921665030056</v>
@@ -20259,7 +20223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.745347426330166</v>
+        <v>1.714950023791719</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.917790780858514</v>
@@ -20348,7 +20312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.744834434926589</v>
+        <v>1.712873267923991</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.967275767335199</v>
@@ -20437,7 +20401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.745698637435993</v>
+        <v>1.713380269179082</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.790285686344609</v>
@@ -20526,7 +20490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746290646126626</v>
+        <v>1.717022603885841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.819767079004677</v>
@@ -20615,7 +20579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.752887058991915</v>
+        <v>1.721222443030018</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.954765409426979</v>
@@ -20704,7 +20668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.752050931040276</v>
+        <v>1.725312258668241</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.785676290799015</v>
@@ -20793,7 +20757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.753033427070324</v>
+        <v>1.728078928955689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.912739901574452</v>
@@ -20882,7 +20846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.748155709976522</v>
+        <v>1.725299009398729</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.900528740981844</v>
@@ -20971,7 +20935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741218198126319</v>
+        <v>1.715644707626592</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.90408153145164</v>
@@ -21060,7 +21024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736752031688771</v>
+        <v>1.711793780226084</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.832460026703101</v>
@@ -21149,7 +21113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.756848761755976</v>
+        <v>1.733171819262332</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.454975737780973</v>
@@ -21238,7 +21202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.799190420160658</v>
+        <v>1.760657928034626</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.011138007297514</v>
@@ -21327,7 +21291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.798114399075158</v>
+        <v>1.758920287843394</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.776026166119969</v>
@@ -21416,7 +21380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.821284227231806</v>
+        <v>1.771989759803707</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.865205069373037</v>
@@ -21505,7 +21469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.832485089043428</v>
+        <v>1.784434370290382</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.286634780535296</v>
@@ -21594,7 +21558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.838802765391997</v>
+        <v>1.784976421081641</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.435469114364269</v>
@@ -21683,7 +21647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.835475880153846</v>
+        <v>1.784198512685849</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.008232280738073</v>
@@ -21772,7 +21736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.8410535278153</v>
+        <v>1.788861847295572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.119661355582517</v>
@@ -21861,7 +21825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.840956852752398</v>
+        <v>1.790665218272026</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.972010455348139</v>
@@ -21950,7 +21914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.826464837007218</v>
+        <v>1.77730596730658</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.382441279004246</v>
@@ -22039,7 +22003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.826159540889752</v>
+        <v>1.77385719905342</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.812963216935112</v>
@@ -22128,7 +22092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829449332782023</v>
+        <v>1.779859100210131</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.604310733143672</v>
@@ -22414,7 +22378,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.646039579399001</v>
+        <v>1.607441213502549</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.781189244620143</v>
@@ -22503,7 +22467,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642071885668891</v>
+        <v>1.602215602487904</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.649520831666491</v>
@@ -22592,7 +22556,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.65988547024351</v>
+        <v>1.618339204578421</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.862249006741032</v>
@@ -22681,7 +22645,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.661110573427992</v>
+        <v>1.626103681690795</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.785072236925223</v>
@@ -22770,7 +22734,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.660972997843604</v>
+        <v>1.630467349170417</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.759534103503702</v>
@@ -22859,7 +22823,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.688179222270216</v>
+        <v>1.646793478509383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.976293919004452</v>
@@ -22948,7 +22912,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.68748960431746</v>
+        <v>1.646005454215377</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.857541714736115</v>
@@ -23037,7 +23001,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.692176345560017</v>
+        <v>1.648699170217947</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.956170641572425</v>
@@ -23126,7 +23090,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.692744645090374</v>
+        <v>1.651418105690609</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.897807185429875</v>
@@ -23215,7 +23179,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.69491257381499</v>
+        <v>1.64437200123529</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.104127461227718</v>
@@ -23304,7 +23268,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.655138179724243</v>
+        <v>1.605928289085562</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.37215795540585</v>
@@ -23393,7 +23357,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645959932582334</v>
+        <v>1.593217108893822</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.250450277058734</v>
@@ -23482,7 +23446,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.63988462943371</v>
+        <v>1.592074571876036</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.487943630940753</v>
@@ -23571,7 +23535,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.63782753226763</v>
+        <v>1.5956059945772</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.364941166512207</v>
@@ -23660,7 +23624,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641704270291555</v>
+        <v>1.601066511462471</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.395643304167278</v>
@@ -23749,7 +23713,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646990035759987</v>
+        <v>1.607083874595523</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.277415733987533</v>
@@ -23838,7 +23802,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.642062054965163</v>
+        <v>1.613983568386161</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.469215299464425</v>
@@ -23927,7 +23891,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642010571085772</v>
+        <v>1.607411609039388</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.930951496713375</v>
@@ -24016,7 +23980,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65283128001968</v>
+        <v>1.612800329857731</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.960942451459213</v>
@@ -24105,7 +24069,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668515966731148</v>
+        <v>1.617979348242463</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.346172675981331</v>
@@ -24194,7 +24158,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671110173113657</v>
+        <v>1.623605801080899</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.26908715325215</v>
@@ -24283,7 +24247,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.662878867365962</v>
+        <v>1.622782763525932</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.288628507368521</v>
@@ -24372,7 +24336,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.644144354835724</v>
+        <v>1.595241253317171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.149827179925876</v>
@@ -24461,7 +24425,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.646144092088801</v>
+        <v>1.594091846029386</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.061427306615325</v>
@@ -24550,7 +24514,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657658243644431</v>
+        <v>1.613720815625058</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.211703912598469</v>
@@ -24639,7 +24603,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65229424144042</v>
+        <v>1.608676645726766</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.215170054554759</v>
@@ -24728,7 +24692,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662064160415378</v>
+        <v>1.621457902014441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.863197907134034</v>
@@ -24817,7 +24781,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.658850324163958</v>
+        <v>1.618458362762616</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.234877747510849</v>
@@ -24906,7 +24870,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.659473856251972</v>
+        <v>1.613750895334211</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.264244864218476</v>
@@ -24995,7 +24959,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665893475256157</v>
+        <v>1.615570840467214</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.816587481660723</v>
@@ -25084,7 +25048,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683420571304897</v>
+        <v>1.633406106258928</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.066352311411889</v>
@@ -25173,7 +25137,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687223183544839</v>
+        <v>1.633835890084148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.118488195517901</v>
@@ -25262,7 +25226,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68468346367067</v>
+        <v>1.637845336596122</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.239079671240741</v>
@@ -25351,7 +25315,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.687297830746762</v>
+        <v>1.643466615102301</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.110526404724649</v>
@@ -25440,7 +25404,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.676214962312759</v>
+        <v>1.634822204819552</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.996419040235172</v>
@@ -25529,7 +25493,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67502643221992</v>
+        <v>1.624842940952514</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.213049004649414</v>
@@ -25618,7 +25582,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.683242498601503</v>
+        <v>1.625960805580529</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.098559968011941</v>
@@ -25707,7 +25671,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.708685913105708</v>
+        <v>1.652991554619307</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.803051658859733</v>
@@ -25796,7 +25760,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.697389782654664</v>
+        <v>1.646503356682874</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.079137080942959</v>
@@ -25885,7 +25849,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694743775706601</v>
+        <v>1.636863445475423</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.245550485974003</v>
@@ -25974,7 +25938,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724386184673133</v>
+        <v>1.656932872996552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.595323212282436</v>
@@ -26063,7 +26027,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.722763185852355</v>
+        <v>1.647714793335078</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.784721932660675</v>
@@ -26152,7 +26116,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.733210977310298</v>
+        <v>1.654200698796815</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.418796502526442</v>
@@ -26241,7 +26205,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.736482626901654</v>
+        <v>1.661599094989197</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.797916303887259</v>
@@ -26330,7 +26294,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.747793682965023</v>
+        <v>1.684198959478356</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.941186669144443</v>
@@ -26419,7 +26383,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.713701318601197</v>
+        <v>1.656894673710437</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.230549119956998</v>
@@ -26508,7 +26472,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.702030349648558</v>
+        <v>1.645708799204733</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.145919363620224</v>
@@ -26597,7 +26561,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.702793892666</v>
+        <v>1.641649939492911</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.977581797389799</v>
@@ -26686,7 +26650,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.702262783096215</v>
+        <v>1.639589539218019</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.845321608454052</v>
@@ -26972,7 +26936,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.677291276869528</v>
+        <v>1.69769131482208</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.382625339078757</v>
@@ -27061,7 +27025,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.663079545250659</v>
+        <v>1.691872782461049</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.389377886758095</v>
@@ -27150,7 +27114,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.663720035461299</v>
+        <v>1.692425075208594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.380987502216701</v>
@@ -27239,7 +27203,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.675218232118852</v>
+        <v>1.70535046535619</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.41221983432378</v>
@@ -27328,7 +27292,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.706910847250757</v>
+        <v>1.732287323700628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.232282325385203</v>
@@ -27417,7 +27381,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.792297338760528</v>
+        <v>1.799282140385162</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.432499359214878</v>
@@ -27506,7 +27470,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.795627721826015</v>
+        <v>1.802926932495337</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.682387386550129</v>
@@ -27595,7 +27559,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.787548316534505</v>
+        <v>1.792757119202791</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.68991595610741</v>
@@ -27684,7 +27648,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.789698223063158</v>
+        <v>1.796388726980335</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.480770298142981</v>
@@ -27773,7 +27737,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847217811185028</v>
+        <v>1.845053198566731</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.524534987602683</v>
@@ -27862,7 +27826,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.83183764326515</v>
+        <v>1.834969103578638</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.561232462010525</v>
@@ -27951,7 +27915,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.830557130981082</v>
+        <v>1.834019827889715</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.622885982255589</v>
@@ -28040,7 +28004,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.836609207581619</v>
+        <v>1.844895096575181</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.525951396294089</v>
@@ -28129,7 +28093,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.834350995319716</v>
+        <v>1.842790330144912</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.509977780788116</v>
@@ -28218,7 +28182,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.838841524658193</v>
+        <v>1.849808593378546</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.564974578617749</v>
@@ -28307,7 +28271,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.888165258134295</v>
+        <v>1.892233564626978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.380327298884486</v>
@@ -28396,7 +28360,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.892114943599461</v>
+        <v>1.891683702480425</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.017185282099297</v>
@@ -28485,7 +28449,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.896659568990099</v>
+        <v>1.893070935674624</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.263344517369059</v>
@@ -28574,7 +28538,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.896648492758911</v>
+        <v>1.895625450340028</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.890131708418146</v>
@@ -28663,7 +28627,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.899269158554519</v>
+        <v>1.89601009151823</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.476424236437417</v>
@@ -28752,7 +28716,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.897644498971646</v>
+        <v>1.896363209669302</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.998358880785168</v>
@@ -28841,7 +28805,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.835119755585179</v>
+        <v>1.845247621939008</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.45523780362415</v>
@@ -28930,7 +28894,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.789842521521654</v>
+        <v>1.800192405084</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.608334874603914</v>
@@ -29019,7 +28983,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.733600371550436</v>
+        <v>1.745459117776231</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.454307392667446</v>
@@ -29108,7 +29072,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726938250555299</v>
+        <v>1.741543867451041</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.668619613228298</v>
@@ -29197,7 +29161,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658435460818729</v>
+        <v>1.673675967963549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.273793265405468</v>
@@ -29286,7 +29250,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.652973736696453</v>
+        <v>1.666858519290282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.305369183552733</v>
@@ -29375,7 +29339,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.648023889082687</v>
+        <v>1.656249135107671</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.364388752036177</v>
@@ -29464,7 +29428,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646960777674959</v>
+        <v>1.653071908037776</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.374997451652884</v>
@@ -29553,7 +29517,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.64576874187194</v>
+        <v>1.649085935408127</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.303857461628277</v>
@@ -29642,7 +29606,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.652371066424929</v>
+        <v>1.656261517383042</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.2975938973261</v>
@@ -29731,7 +29695,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.616206765638271</v>
+        <v>1.628585152893035</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.37389625626271</v>
@@ -29820,7 +29784,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610169841030254</v>
+        <v>1.625479098674938</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.349907601747357</v>
@@ -29909,7 +29873,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608030300368437</v>
+        <v>1.62083752359773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.354724269693083</v>
@@ -29998,7 +29962,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609130829097395</v>
+        <v>1.62374137108655</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.33560398125736</v>
@@ -30087,7 +30051,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607485507321247</v>
+        <v>1.618627510476309</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.412644560992135</v>
@@ -30176,7 +30140,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.641771422747639</v>
+        <v>1.650044916889332</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.396150959800864</v>
@@ -30265,7 +30229,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.670396408194612</v>
+        <v>1.677941606233726</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.240716134030433</v>
@@ -30354,7 +30318,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.715642489544182</v>
+        <v>1.713609471682225</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.251991759245525</v>
@@ -30443,7 +30407,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720091851812091</v>
+        <v>1.716042428563074</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.276789906511505</v>
@@ -30532,7 +30496,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.817936829321364</v>
+        <v>1.797896722497679</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.497635749962197</v>
@@ -30621,7 +30585,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.821951310386972</v>
+        <v>1.804280808967722</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.572620661836472</v>
@@ -30710,7 +30674,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.821584518893594</v>
+        <v>1.807201792264351</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.680191152436299</v>
@@ -30799,7 +30763,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.830871630610302</v>
+        <v>1.816027372359802</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.531384155504173</v>
@@ -30888,7 +30852,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.820883414725609</v>
+        <v>1.791398031738279</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.484467482044748</v>
@@ -30977,7 +30941,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.776308458024606</v>
+        <v>1.760391214023184</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.245786828504416</v>
@@ -31066,7 +31030,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.799312110747845</v>
+        <v>1.781112148183809</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.679240587807416</v>
@@ -31155,7 +31119,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.801365663491101</v>
+        <v>1.779601335542908</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.667543610951813</v>
@@ -31244,7 +31208,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.796576744738798</v>
+        <v>1.780133219242247</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.762656704204853</v>
